--- a/biology/Botanique/Jacques_Bernard_Hombron/Jacques_Bernard_Hombron.xlsx
+++ b/biology/Botanique/Jacques_Bernard_Hombron/Jacques_Bernard_Hombron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Bernard Hombron, né le 15 avril 1798 à Paris, mort le 16 octobre 1852[1], est un chirurgien de marine et un naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Bernard Hombron, né le 15 avril 1798 à Paris, mort le 16 octobre 1852, est un chirurgien de marine et un naturaliste français.
 Il participe au voyage à bord de L’Astrolabe et de la Zélée à l'expédition de Dumont d'Urville de 1837 à 1840 dont le but est d'étudier la périphérie de l'Antarctique. Il décrit de nombreuses plantes et animaux avec Honoré Jacquinot (1815-1887).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (25 janvier 1841).</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Honoré Jacquinot, Voyage au Pole Sud et dans l'Océanie sur les corvettes l'Astrolabe et la Zélée, Paris, Gide et Cie, 1846.
 Aventures les plus curieuses des voyageurs, coup d’œil autour du monde d'après les relations anciennes et modernes et des documents recueillis sur les lieux, Paris, Belin-Leprieur et Morizot, 1847, in-8o.</t>
